--- a/data/trans_dic/P25C$otraforma_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02653610341027787</v>
+        <v>0.02653610341027786</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02765674803661668</v>
+        <v>0.02765674803661669</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02694856433623886</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007086660996067193</v>
+        <v>0.007181739506112027</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08947020024185601</v>
+        <v>0.09058248949986512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08446321994346952</v>
+        <v>0.08611663218583247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06945193151878834</v>
+        <v>0.07150723210575</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09496329215241883</v>
+        <v>0.09496329215241885</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.04162138618251349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07836795009331236</v>
+        <v>0.07836795009331239</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05581973488516677</v>
+        <v>0.06174303286523203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01491722419804541</v>
+        <v>0.0153054142365931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05022066360215056</v>
+        <v>0.04991408684054222</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1459143689781541</v>
+        <v>0.1462662944367034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09710137627274876</v>
+        <v>0.09250295495888528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1131048221340257</v>
+        <v>0.1191621668405443</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02318586123358644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02083998437809509</v>
+        <v>0.02083998437809508</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005920609814493896</v>
+        <v>0.005904733892124396</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0</v>
+        <v>0.007050457115448501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007602934036157532</v>
+        <v>0.006790563840900531</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05233741700785624</v>
+        <v>0.05355332672072186</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06186270618374365</v>
+        <v>0.06488395003233291</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04345363327287324</v>
+        <v>0.04300832003657826</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.0177747158934005</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0206109977436346</v>
+        <v>0.02061099774363461</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01887388866886866</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004428364966844976</v>
+        <v>0.005949163682514413</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005322507420942532</v>
+        <v>0.00525818516846646</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007990619728165687</v>
+        <v>0.008764824823510965</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04609078677496485</v>
+        <v>0.04715341083023148</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05418193253430725</v>
+        <v>0.05064913440125764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03730900180783826</v>
+        <v>0.03625399706632217</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02831478637975052</v>
+        <v>0.02940268817581927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01528904068488738</v>
+        <v>0.01446515199943946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02723902374188331</v>
+        <v>0.02625295945920364</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06193939054378109</v>
+        <v>0.06152618611358928</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04496939801481092</v>
+        <v>0.04241090106375232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0496802330258063</v>
+        <v>0.04962594085060736</v>
       </c>
     </row>
     <row r="19">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>983</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7846</v>
+        <v>7943</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4314</v>
+        <v>4398</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9637</v>
+        <v>9923</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10847</v>
+        <v>11998</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1309</v>
+        <v>1343</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14166</v>
+        <v>14079</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28354</v>
+        <v>28422</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8521</v>
+        <v>8118</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31904</v>
+        <v>33613</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1962</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8707</v>
+        <v>8909</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5676</v>
+        <v>5953</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11216</v>
+        <v>11101</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>915</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2696</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9526</v>
+        <v>9746</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7086</v>
+        <v>6624</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12590</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18547</v>
+        <v>19260</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5525</v>
+        <v>5227</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>27686</v>
+        <v>26683</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40573</v>
+        <v>40302</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16250</v>
+        <v>15325</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50495</v>
+        <v>50440</v>
       </c>
     </row>
     <row r="24">
